--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048C83F-F846-C64A-BDA4-368946F7EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82266FC1-DA23-5D48-8A4B-EA98B788401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>manager</t>
   </si>
@@ -88,18 +88,6 @@
     <t>Стоительный</t>
   </si>
   <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Степан</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
@@ -125,6 +113,27 @@
   </si>
   <si>
     <t>123@ed.er8</t>
+  </si>
+  <si>
+    <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Петр К</t>
+  </si>
+  <si>
+    <t>афйти</t>
+  </si>
+  <si>
+    <t>кака</t>
+  </si>
+  <si>
+    <t>123@ed.er9</t>
+  </si>
+  <si>
+    <t>ка</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6FE6CB-3D87-B340-950D-6ECA5A590250}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,10 +551,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -554,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -565,10 +574,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -577,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -588,10 +597,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -600,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -611,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -623,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -634,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -646,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -657,10 +666,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -669,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -680,10 +689,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -692,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -703,10 +712,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -715,10 +724,36 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -726,6 +761,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{96CE19E8-BF5F-8641-9BA6-DB621DE70FDC}"/>
     <hyperlink ref="F3:F9" r:id="rId2" display="123@ed.er1" xr:uid="{413971DC-A0C2-414E-980F-0A0F880647AC}"/>
+    <hyperlink ref="F10" r:id="rId3" display="123@ed.er1" xr:uid="{091FDD32-FAD4-FE4B-8C9F-A15122D7AFD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82266FC1-DA23-5D48-8A4B-EA98B788401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C444D09-36A8-4F4A-889B-8118FB4F7695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>manager</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>ка</t>
+  </si>
+  <si>
+    <t>юрист</t>
+  </si>
+  <si>
+    <t>садовник</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -626,7 +632,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>

--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C444D09-36A8-4F4A-889B-8118FB4F7695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8696A-DF56-2049-B1F9-8055260CD8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,20 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>manager</t>
   </si>
   <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>couch</t>
-  </si>
-  <si>
-    <t>Логист</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -70,27 +61,12 @@
     <t>hash</t>
   </si>
   <si>
-    <t>eeef</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-  <si>
-    <t>ewf</t>
-  </si>
-  <si>
-    <t>wef</t>
-  </si>
-  <si>
     <t>Юридический</t>
   </si>
   <si>
     <t>Стоительный</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>123@ed.er1</t>
   </si>
   <si>
@@ -118,12 +94,6 @@
     <t>Иван Иванов</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Петр К</t>
-  </si>
-  <si>
     <t>афйти</t>
   </si>
   <si>
@@ -140,6 +110,45 @@
   </si>
   <si>
     <t>садовник</t>
+  </si>
+  <si>
+    <t>петр</t>
+  </si>
+  <si>
+    <t>манагер</t>
+  </si>
+  <si>
+    <t>шляпа</t>
+  </si>
+  <si>
+    <t>пес</t>
+  </si>
+  <si>
+    <t>осип 1</t>
+  </si>
+  <si>
+    <t>осип 2</t>
+  </si>
+  <si>
+    <t>осип 3</t>
+  </si>
+  <si>
+    <t>осип 4</t>
+  </si>
+  <si>
+    <t>осип 5</t>
+  </si>
+  <si>
+    <t>осип 6</t>
+  </si>
+  <si>
+    <t>осип 7</t>
+  </si>
+  <si>
+    <t>осип 8</t>
+  </si>
+  <si>
+    <t>осип 9</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6FE6CB-3D87-B340-950D-6ECA5A590250}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H1" sqref="H1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,240 +535,210 @@
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8696A-DF56-2049-B1F9-8055260CD8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B953B-9195-EF47-A5C0-800523EFB6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28040" windowHeight="17360" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38200" windowHeight="11240" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H10"/>
+      <selection activeCell="B15" sqref="B15:BP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B953B-9195-EF47-A5C0-800523EFB6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA550ED-E6D3-8248-AB0F-CADFB4DAD934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38200" windowHeight="11240" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,127 +35,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>report_to</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t>Юридический</t>
-  </si>
-  <si>
-    <t>Стоительный</t>
-  </si>
-  <si>
-    <t>123@ed.er1</t>
-  </si>
-  <si>
-    <t>123@ed.er2</t>
-  </si>
-  <si>
-    <t>123@ed.er3</t>
-  </si>
-  <si>
-    <t>123@ed.er4</t>
-  </si>
-  <si>
-    <t>123@ed.er5</t>
-  </si>
-  <si>
-    <t>123@ed.er6</t>
-  </si>
-  <si>
-    <t>123@ed.er7</t>
-  </si>
-  <si>
-    <t>123@ed.er8</t>
-  </si>
-  <si>
-    <t>Иван Иванов</t>
-  </si>
-  <si>
-    <t>афйти</t>
-  </si>
-  <si>
-    <t>кака</t>
-  </si>
-  <si>
-    <t>123@ed.er9</t>
-  </si>
-  <si>
-    <t>ка</t>
-  </si>
-  <si>
-    <t>юрист</t>
-  </si>
-  <si>
-    <t>садовник</t>
-  </si>
-  <si>
-    <t>петр</t>
-  </si>
-  <si>
-    <t>манагер</t>
-  </si>
-  <si>
-    <t>шляпа</t>
-  </si>
-  <si>
-    <t>пес</t>
-  </si>
-  <si>
-    <t>осип 1</t>
-  </si>
-  <si>
-    <t>осип 2</t>
-  </si>
-  <si>
-    <t>осип 3</t>
-  </si>
-  <si>
-    <t>осип 4</t>
-  </si>
-  <si>
-    <t>осип 5</t>
-  </si>
-  <si>
-    <t>осип 6</t>
-  </si>
-  <si>
-    <t>осип 7</t>
-  </si>
-  <si>
-    <t>осип 8</t>
-  </si>
-  <si>
-    <t>осип 9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>REPORTS TO</t>
+  </si>
+  <si>
+    <t>Мейл рук-ей</t>
+  </si>
+  <si>
+    <t>Botayeva</t>
+  </si>
+  <si>
+    <t>Jamilya</t>
+  </si>
+  <si>
+    <t>jbotayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Resources </t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>Mukhabbat Kassymova</t>
+  </si>
+  <si>
+    <t>mkassymova@borusan.com</t>
+  </si>
+  <si>
+    <t>Kosherbayeva</t>
+  </si>
+  <si>
+    <t>Nazira</t>
+  </si>
+  <si>
+    <t>nkosherbayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Corporate Communications Specialist</t>
+  </si>
+  <si>
+    <t>Ardak Uderbayev</t>
+  </si>
+  <si>
+    <t>auderbayev@borusan.com</t>
+  </si>
+  <si>
+    <t>Ogurtsova</t>
+  </si>
+  <si>
+    <t>Anissya</t>
+  </si>
+  <si>
+    <t>aogurtsova@borusan.com</t>
+  </si>
+  <si>
+    <t>HR Specialist</t>
+  </si>
+  <si>
+    <t>Karaganda</t>
+  </si>
+  <si>
+    <t>Alua Rakhimbayeva</t>
+  </si>
+  <si>
+    <t>arakhimbayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Zhumagulova</t>
+  </si>
+  <si>
+    <t>Gulya</t>
+  </si>
+  <si>
+    <t>gzhumagulova@borusan.com</t>
+  </si>
+  <si>
+    <t>Bekturganov</t>
+  </si>
+  <si>
+    <t>Askar</t>
+  </si>
+  <si>
+    <t>abekturganov@borusan.com</t>
+  </si>
+  <si>
+    <t>Regional Safety Engineer</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Altyntau</t>
+  </si>
+  <si>
+    <t>Yelena Dyomina</t>
+  </si>
+  <si>
+    <t>edyomina@borusan.com</t>
+  </si>
+  <si>
+    <t>Ushmarov</t>
+  </si>
+  <si>
+    <t>Vadim</t>
+  </si>
+  <si>
+    <t>vushmarov@borusan.com</t>
+  </si>
+  <si>
+    <t>SSGPO</t>
+  </si>
+  <si>
+    <t>Zakharova</t>
+  </si>
+  <si>
+    <t>Tatyana</t>
+  </si>
+  <si>
+    <t>tzakharova@borusan.com</t>
+  </si>
+  <si>
+    <t>Filyutina</t>
+  </si>
+  <si>
+    <t>Yuliya</t>
+  </si>
+  <si>
+    <t>yfilyutina@borusan.com</t>
+  </si>
+  <si>
+    <t>Learning &amp; Development Department</t>
+  </si>
+  <si>
+    <t>Zarina Atabayeva</t>
+  </si>
+  <si>
+    <t>zatabayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Kapatsin</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>akapatsin@borusan.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Supervisor </t>
+  </si>
+  <si>
+    <t>Kassym Abildin</t>
+  </si>
+  <si>
+    <t>kabildin@borusan.com</t>
+  </si>
+  <si>
+    <t>Baimukhanov</t>
+  </si>
+  <si>
+    <t>Nurlan</t>
+  </si>
+  <si>
+    <t>nbaimukhanov@borusan.com</t>
+  </si>
+  <si>
+    <t>Coordinator (Staff Training and Development)</t>
+  </si>
+  <si>
+    <t>Yermaganbetov</t>
+  </si>
+  <si>
+    <t>Bakulan</t>
+  </si>
+  <si>
+    <t>byermaganbetov@borusan.com</t>
+  </si>
+  <si>
+    <t>Instructor (technical training)</t>
+  </si>
+  <si>
+    <t>Amangeldiyev</t>
+  </si>
+  <si>
+    <t>Nariman</t>
+  </si>
+  <si>
+    <t>namangeldiyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Training Instructor</t>
+  </si>
+  <si>
+    <t>Kairat Rzakhmetov</t>
+  </si>
+  <si>
+    <t>krzakhmetov@borusan.com</t>
+  </si>
+  <si>
+    <t>Mussagaliyev</t>
+  </si>
+  <si>
+    <t>Ardak</t>
+  </si>
+  <si>
+    <t>amussagaliyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Smykalov</t>
+  </si>
+  <si>
+    <t>Alexandr</t>
+  </si>
+  <si>
+    <t>asmykalov@borusan.com</t>
+  </si>
+  <si>
+    <t>Zhumagaliyev</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>izhumagaliyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Raimbekov</t>
+  </si>
+  <si>
+    <t>Yernar</t>
+  </si>
+  <si>
+    <t>yraimbekov@borusan.com</t>
+  </si>
+  <si>
+    <t>Smagulov</t>
+  </si>
+  <si>
+    <t>Rinat</t>
+  </si>
+  <si>
+    <t>rsmagulov@borusan.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,24 +331,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,18 +374,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3 2 2" xfId="1" xr:uid="{C036BE47-DD69-5B4D-A6AC-8C4A138581E8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6FE6CB-3D87-B340-950D-6ECA5A590250}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:BP25"/>
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,219 +732,601 @@
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <f>ROW()-ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A18" si="0">ROW()-ROW($A$1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="52" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{96CE19E8-BF5F-8641-9BA6-DB621DE70FDC}"/>
-    <hyperlink ref="F3:F9" r:id="rId2" display="123@ed.er1" xr:uid="{413971DC-A0C2-414E-980F-0A0F880647AC}"/>
-    <hyperlink ref="F10" r:id="rId3" display="123@ed.er1" xr:uid="{091FDD32-FAD4-FE4B-8C9F-A15122D7AFD3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/upload_files/1test.xlsx
+++ b/upload_files/1test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacBookKO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980109BD-2FA3-BE49-9975-F476C482F597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF79C71-FB47-7443-B9FE-0F5EF91B1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="38200" windowHeight="11240" xr2:uid="{95CEA91B-7431-A44E-A30F-92C2E6028308}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>№</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Head Office</t>
   </si>
   <si>
-    <t>Bdfy Bdfyjd</t>
-  </si>
-  <si>
     <t>jffeva@borusan.com</t>
   </si>
   <si>
@@ -97,13 +94,250 @@
     <t>Jamilyaf</t>
   </si>
   <si>
-    <t>hd.spk27@gmail.comjjjj</t>
-  </si>
-  <si>
-    <t>spk27@gmail.comtghhh</t>
-  </si>
-  <si>
     <t>jffefffva@borusan.comhhh</t>
+  </si>
+  <si>
+    <t>jbotayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Mukhabbat Kassymova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkassymova@borusan.com </t>
+  </si>
+  <si>
+    <t>Kosherbayeva</t>
+  </si>
+  <si>
+    <t>Nazira</t>
+  </si>
+  <si>
+    <t>nkosherbayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Corporate Communications Specialist</t>
+  </si>
+  <si>
+    <t>Ardak Uderbayev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auderbayev@borusan.com </t>
+  </si>
+  <si>
+    <t>Ogurtsova</t>
+  </si>
+  <si>
+    <t>Anissya</t>
+  </si>
+  <si>
+    <t>aogurtsova@borusan.com</t>
+  </si>
+  <si>
+    <t>HR Specialist</t>
+  </si>
+  <si>
+    <t>Karaganda</t>
+  </si>
+  <si>
+    <t>Alua Rakhimbayeva</t>
+  </si>
+  <si>
+    <t>arakhimbayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Zhumagulova</t>
+  </si>
+  <si>
+    <t>Gulya</t>
+  </si>
+  <si>
+    <t>gzhumagulova@borusan.com</t>
+  </si>
+  <si>
+    <t>Bekturganov</t>
+  </si>
+  <si>
+    <t>Askar</t>
+  </si>
+  <si>
+    <t>abekturganov@borusan.com</t>
+  </si>
+  <si>
+    <t>Regional Safety Engineer</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Altyntau</t>
+  </si>
+  <si>
+    <t>Yelena Dyomina</t>
+  </si>
+  <si>
+    <t>edyomina@borusan.com</t>
+  </si>
+  <si>
+    <t>Ushmarov</t>
+  </si>
+  <si>
+    <t>Vadim</t>
+  </si>
+  <si>
+    <t>vushmarov@borusan.com</t>
+  </si>
+  <si>
+    <t>SSGPO</t>
+  </si>
+  <si>
+    <t>Zakharova</t>
+  </si>
+  <si>
+    <t>Tatyana</t>
+  </si>
+  <si>
+    <t>tzakharova@borusan.com</t>
+  </si>
+  <si>
+    <t>Filyutina</t>
+  </si>
+  <si>
+    <t>Yuliya</t>
+  </si>
+  <si>
+    <t>yfilyutina@borusan.com</t>
+  </si>
+  <si>
+    <t>Learning &amp; Development Department</t>
+  </si>
+  <si>
+    <t>Zarina Atabayeva</t>
+  </si>
+  <si>
+    <t>zatabayeva@borusan.com</t>
+  </si>
+  <si>
+    <t>Kapatsin</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>akapatsin@borusan.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Supervisor </t>
+  </si>
+  <si>
+    <t>Kassym Abildin</t>
+  </si>
+  <si>
+    <t>kabildin@borusan.com</t>
+  </si>
+  <si>
+    <t>Baimukhanov</t>
+  </si>
+  <si>
+    <t>Nurlan</t>
+  </si>
+  <si>
+    <t>nbaimukhanov@borusan.com</t>
+  </si>
+  <si>
+    <t>Coordinator (Staff Training and Development)</t>
+  </si>
+  <si>
+    <t>Yermaganbetov</t>
+  </si>
+  <si>
+    <t>Bakulan</t>
+  </si>
+  <si>
+    <t>byermaganbetov@borusan.com</t>
+  </si>
+  <si>
+    <t>Instructor (technical training)</t>
+  </si>
+  <si>
+    <t>Amangeldiyev</t>
+  </si>
+  <si>
+    <t>Nariman</t>
+  </si>
+  <si>
+    <t>namangeldiyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Training Instructor</t>
+  </si>
+  <si>
+    <t>Kairat Rzakhmetov</t>
+  </si>
+  <si>
+    <t>krzakhmetov@borusan.com</t>
+  </si>
+  <si>
+    <t>Mussagaliyev</t>
+  </si>
+  <si>
+    <t>Ardak</t>
+  </si>
+  <si>
+    <t>amussagaliyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Smykalov</t>
+  </si>
+  <si>
+    <t>Alexandr</t>
+  </si>
+  <si>
+    <t>asmykalov@borusan.com</t>
+  </si>
+  <si>
+    <t>Zhumagaliyev</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>izhumagaliyev@borusan.com</t>
+  </si>
+  <si>
+    <t>Raimbekov</t>
+  </si>
+  <si>
+    <t>Yernar</t>
+  </si>
+  <si>
+    <t>yraimbekov@borusan.com</t>
+  </si>
+  <si>
+    <t>Smagulov</t>
+  </si>
+  <si>
+    <t>Rinat</t>
+  </si>
+  <si>
+    <t>rsmagulov@borusan.com</t>
+  </si>
+  <si>
+    <t>hd.spk27@gmail.com</t>
+  </si>
+  <si>
+    <t>spk27@gmail.com</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -218,7 +452,18 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2 2" xfId="1" xr:uid="{C036BE47-DD69-5B4D-A6AC-8C4A138581E8}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -528,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6FE6CB-3D87-B340-950D-6ECA5A590250}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -602,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -614,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -635,199 +880,585 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f>ROW()-ROW($A$1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A20" si="0">ROW()-ROW($A$1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="52" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D4:D20 J4:J20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F0442B50-5380-E345-B18C-3B36E8481BEC}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6E99864C-9B90-3A4C-BD89-A3C637355E12}"/>
     <hyperlink ref="J3" r:id="rId3" xr:uid="{D22BD804-8810-144C-A168-89D29048E4C9}"/>
     <hyperlink ref="J2" r:id="rId4" xr:uid="{400C286A-0816-9740-AE7E-3F52B5FED326}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{277A4BEE-23EE-FE4D-9BA2-4882B03336D1}"/>
+    <hyperlink ref="J5" r:id="rId6" xr:uid="{067C1206-2626-9240-97E4-2FB6B143BC8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
